--- a/BELIZE_REV_EXP_DATA.xlsx
+++ b/BELIZE_REV_EXP_DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/msramirezgo_unal_edu_co/Documents/Oliver Pardo/VAR_VEC-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maico\OneDrive - Universidad Nacional de Colombia\Oliver Pardo\VAR_VEC-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{14A6E3A1-C6B9-42D4-AEE6-105A1D0D583F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{656D3D2D-A768-4153-BC2A-7614B53A37D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56CA9E3-9B95-4542-AFA7-6A1D88F4AB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBE8DB5C-40B8-4D9B-94ED-F6DEFF2E146C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Grants</t>
   </si>
@@ -474,6 +474,15 @@
   </si>
   <si>
     <t>Total Expenditure</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Deflactor</t>
   </si>
 </sst>
 </file>
@@ -481,13 +490,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +536,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -560,9 +576,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -570,9 +587,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -593,17 +607,19 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_A" xfId="1" xr:uid="{B904B56A-3F27-4852-B59F-7F1D174DBB68}"/>
   </cellStyles>
@@ -920,4903 +936,5270 @@
   <dimension ref="A1:P137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="M1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>42.5</v>
       </c>
-      <c r="C2" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="C2" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="9">
         <v>45.5</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>32.799999999999997</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>15.5</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>48.3</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
         <v>9.7000000000000028</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>-2.7999999999999972</v>
       </c>
-      <c r="L2" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="L2" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>47.6</v>
       </c>
-      <c r="C3" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D3" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="C3" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="9">
         <v>53.8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>32.200000000000003</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>20.9</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>53.1</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
         <v>15.399999999999999</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>0.69999999999999574</v>
       </c>
-      <c r="L3" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>38.5</v>
       </c>
-      <c r="C4" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="C4" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="9">
         <v>41.8</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>16.899999999999999</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>15</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>31.9</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
         <v>21.6</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>9.8999999999999986</v>
       </c>
-      <c r="L4" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="L4" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>55.6</v>
       </c>
-      <c r="C5" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="9">
         <v>56.5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>45.1</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>17.600000000000001</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>62.7</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9">
         <v>10.5</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>-6.2000000000000028</v>
       </c>
-      <c r="L5" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="L5" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>43</v>
       </c>
-      <c r="C6" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C6" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="9">
         <v>45.6</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>36.6</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>10</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>46.6</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9">
         <v>6.3999999999999986</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>-1</v>
       </c>
-      <c r="L6" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="L6" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>50.5</v>
       </c>
-      <c r="C7" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="C7" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="9">
         <v>58.7</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>39.700000000000003</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>12.6</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>52.300000000000004</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
         <v>10.799999999999997</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>6.3999999999999986</v>
       </c>
-      <c r="L7" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="L7" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>56.3</v>
       </c>
-      <c r="C8" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D8" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="C8" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="9">
         <v>57.5</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>37.200000000000003</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>25.6</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>62.800000000000004</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9">
         <v>19.099999999999994</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>-5.3000000000000043</v>
       </c>
-      <c r="L8" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="L8" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>61.1</v>
       </c>
-      <c r="C9" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="C9" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="9">
         <v>63.5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>24.3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>37.6</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>61.900000000000006</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9">
         <v>36.799999999999997</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>1.5999999999999979</v>
       </c>
-      <c r="L9" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="L9" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>53.5</v>
       </c>
-      <c r="C10" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="C10" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="9">
         <v>55.4</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>34.200000000000003</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>31.7</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>65.900000000000006</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
         <v>19.299999999999997</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>-10.500000000000004</v>
       </c>
-      <c r="L10" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="L10" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>55.8</v>
       </c>
-      <c r="C11" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="C11" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="9">
         <v>56.4</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>39.1</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>27.2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>66.3</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
         <v>16.699999999999996</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>-9.9000000000000021</v>
       </c>
-      <c r="L11" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="L11" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>54.5</v>
       </c>
-      <c r="C12" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="C12" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="9">
         <v>55</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>40.9</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>30.6</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>71.5</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
         <v>13.600000000000001</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>-16.5</v>
       </c>
-      <c r="L12" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="L12" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>54.6</v>
       </c>
-      <c r="C13" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="C13" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="9">
         <v>85.6</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>40.799999999999997</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>48.4</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>89.199999999999989</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
         <v>13.800000000000004</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>-3.6000000000000014</v>
       </c>
-      <c r="L13" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="L13" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>59.9</v>
       </c>
-      <c r="C14" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="C14" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="9">
         <v>60.5</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>40.299999999999997</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>32.5</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>72.8</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
         <v>19.600000000000001</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>-12.299999999999997</v>
       </c>
-      <c r="L14" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="L14" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>56</v>
       </c>
-      <c r="C15" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="9">
         <v>60.4</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>48.9</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>39.700000000000003</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>88.6</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
         <v>7.1000000000000014</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>-28.199999999999996</v>
       </c>
-      <c r="L15" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="L15" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>61.3</v>
       </c>
-      <c r="C16" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="C16" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="9">
         <v>66.3</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>49.7</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>35.200000000000003</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>84.9</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
         <v>11.599999999999994</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>-18.600000000000009</v>
       </c>
-      <c r="L16" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="L16" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>68.8</v>
       </c>
-      <c r="C17" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="9">
         <v>94.4</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>51.5</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>37.1</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>88.6</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9">
         <v>17.299999999999997</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>5.8000000000000114</v>
       </c>
-      <c r="L17" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="L17" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>58.7</v>
       </c>
-      <c r="C18" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="C18" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="9">
         <v>60</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>48.9</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>44.2</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>93.1</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
         <v>9.8000000000000043</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>-33.099999999999994</v>
       </c>
-      <c r="L18" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="L18" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>56.2</v>
       </c>
-      <c r="C19" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="C19" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="9">
         <v>58.1</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>51.7</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>25.7</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>77.400000000000006</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9">
         <v>4.5</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>-19.300000000000004</v>
       </c>
-      <c r="L19" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="L19" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>65.599999999999994</v>
       </c>
-      <c r="C20" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D20" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="C20" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="9">
         <v>66.3</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>56.4</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>20</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>76.400000000000006</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
         <v>9.1999999999999957</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>-10.100000000000009</v>
       </c>
-      <c r="L20" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="L20" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>69.7</v>
       </c>
-      <c r="C21" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="C21" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="9">
         <v>80.599999999999994</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>62</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>23.3</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>85.3</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
         <v>7.7000000000000028</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>-4.7000000000000028</v>
       </c>
-      <c r="L21" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="L21" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" s="11">
+        <v>303.98999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>60.9</v>
       </c>
-      <c r="C22" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="C22" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="9">
         <v>62</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>53.3</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>29.2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>82.5</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
         <v>7.6000000000000014</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>-20.5</v>
       </c>
-      <c r="L22" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="L22" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M22" s="11">
+        <v>308.94100000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>63.5</v>
       </c>
-      <c r="C23" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="C23" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="9">
         <v>66.099999999999994</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>59.8</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>32</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>91.8</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9">
         <v>3.7000000000000028</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>-25.700000000000003</v>
       </c>
-      <c r="L23" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="L23" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M23" s="11">
+        <v>291.26900000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>70.900000000000006</v>
       </c>
-      <c r="C24" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="C24" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="9">
         <v>74.900000000000006</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>58.7</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>25.5</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>84.2</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9">
         <v>12.200000000000003</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>-9.2999999999999972</v>
       </c>
-      <c r="L24" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="L24" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="11">
+        <v>329.90000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>67.7</v>
       </c>
-      <c r="C25" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="C25" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="9">
         <v>77.599999999999994</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>68.099999999999994</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>24.7</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>92.8</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9">
         <v>-0.39999999999999147</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>-15.200000000000003</v>
       </c>
-      <c r="L25" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="L25" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="11">
+        <v>343.56799999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>64.7</v>
       </c>
-      <c r="C26" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="C26" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="9">
         <v>66.400000000000006</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>55.9</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>20.8</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>76.7</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9">
         <v>8.8000000000000043</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>-10.299999999999997</v>
       </c>
-      <c r="L26" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="L26" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M26" s="11">
+        <v>312.28900000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>64.099999999999994</v>
       </c>
-      <c r="C27" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="C27" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="9">
         <v>66.3</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>57.6</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>21.2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>78.8</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9">
         <v>6.4999999999999929</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>-12.5</v>
       </c>
-      <c r="L27" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="L27" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="11">
+        <v>282.666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>63.4</v>
       </c>
-      <c r="C28" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="C28" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="9">
         <v>65.900000000000006</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>58.3</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>16.899999999999999</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>75.199999999999989</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9">
         <v>5.1000000000000014</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>-9.2999999999999829</v>
       </c>
-      <c r="L28" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="L28" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="11">
+        <v>303.63799999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>67</v>
       </c>
-      <c r="C29" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="C29" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="9">
         <v>72.599999999999994</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>61.2</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>18.899999999999999</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>80.099999999999994</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9">
         <v>5.7999999999999972</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>-7.5</v>
       </c>
-      <c r="L29" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="L29" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="11">
+        <v>350.04200000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>69.5</v>
       </c>
-      <c r="C30" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D30" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="C30" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="9">
         <v>74.8</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>56</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>15.3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>71.3</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9">
         <v>13.5</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>3.5</v>
       </c>
-      <c r="L30" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="L30" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="11">
+        <v>323.154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>71.5</v>
       </c>
-      <c r="C31" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="C31" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="9">
         <v>78.099999999999994</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>55.7</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>18</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>73.7</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9">
         <v>15.799999999999997</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>4.3999999999999915</v>
       </c>
-      <c r="L31" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="L31" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="11">
+        <v>287.45999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>68.5</v>
       </c>
-      <c r="C32" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="C32" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="9">
         <v>75.7</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>61.5</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>20.5</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>82</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9">
         <v>7</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>-6.2999999999999972</v>
       </c>
-      <c r="L32" s="10" t="e">
-        <v>#N/A</v>
+      <c r="L32" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M32" s="11">
+        <v>299.346</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>73.599999999999994</v>
       </c>
-      <c r="C33" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="C33" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="9">
         <v>82.7</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>68.900000000000006</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>25.6</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>94.5</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9">
         <v>4.6999999999999886</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>-11.799999999999997</v>
       </c>
-      <c r="L33" s="10" t="e">
-        <v>#N/A</v>
+      <c r="L33" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M33" s="11">
+        <v>356.51599999999991</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>73.072999999999993</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>3.9950000000000001</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>0.16</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>77.227999999999994</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>58.65</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>17.204999999999998</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>75.85499999999999</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>6.8940000000000001</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>14.422999999999995</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>1.3730000000000047</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>8.2670000000000101</v>
       </c>
+      <c r="M34" s="11">
+        <v>343.57600000000002</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>67.224000000000004</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>3.5619999999999998</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>0.876</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>71.662000000000006</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>58.465000000000003</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>20.308</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>78.772999999999996</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>6.1630000000000003</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>8.7590000000000003</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>-7.11099999999999</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>-0.94799999999999329</v>
       </c>
+      <c r="M35" s="11">
+        <v>301.99899999999997</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>72.191000000000003</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>8.4600000000000009</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>1.84</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>82.491000000000014</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>66.150999999999996</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>18.713999999999999</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>84.864999999999995</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>6.1280000000000001</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>6.0400000000000063</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>-2.373999999999981</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>3.7540000000000191</v>
       </c>
+      <c r="M36" s="11">
+        <v>302.822</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>80.254999999999995</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>3.7149999999999999</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>5.7279999999999998</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>89.697999999999993</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>69.475999999999999</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>22.106999999999999</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>91.582999999999998</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>5.2210000000000001</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>10.778999999999996</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>-1.8850000000000051</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="9">
         <v>3.3359999999999985</v>
       </c>
+      <c r="M37" s="11">
+        <v>363.17600000000004</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>78.866</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>3.9889999999999999</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>0.27400000000000002</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>83.129000000000005</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>61.170999999999999</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>17.239999999999998</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>78.411000000000001</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>7.2919999999999998</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>17.695</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>4.7180000000000035</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="9">
         <v>12.010000000000005</v>
       </c>
+      <c r="M38" s="11">
+        <v>353.13299999999998</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>77.899000000000001</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>6.907</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>3.5760000000000001</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>88.381999999999991</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>59.279000000000003</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>25.260999999999999</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>84.54</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>4.0060000000000002</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>18.619999999999997</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>3.8419999999999845</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
         <v>7.8479999999999848</v>
       </c>
+      <c r="M39" s="11">
+        <v>316.51000000000005</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>68.013000000000005</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>10.819000000000001</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>1.1739999999999999</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>80.006000000000014</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>70.09</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>28.965</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>99.055000000000007</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>8.2750000000000004</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>-2.0769999999999982</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <v>-19.048999999999992</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="9">
         <v>-10.773999999999987</v>
       </c>
+      <c r="M40" s="11">
+        <v>320.67399999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>89.001999999999995</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>34.890999999999998</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>13.625999999999999</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>137.51900000000001</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>74.347999999999999</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>45.121000000000002</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>119.46899999999999</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <v>5.0220000000000002</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>14.653999999999996</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <v>18.050000000000011</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="9">
         <v>23.072000000000017</v>
       </c>
+      <c r="M41" s="11">
+        <v>393.35899999999998</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>66.152000000000001</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>0.80800000000000005</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>67.185000000000002</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>63.22</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>28.715</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>91.935000000000002</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>9.4209999999999994</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>2.9320000000000022</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <v>-24.75</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="9">
         <v>-15.329000000000008</v>
       </c>
+      <c r="M42" s="11">
+        <v>376.74999999999994</v>
+      </c>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>77.882999999999996</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>5.9139999999999997</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>1.518</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>85.314999999999998</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>66.289000000000001</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>30.384</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>96.673000000000002</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>5.6840000000000002</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>5</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <v>-11.358000000000004</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <v>-5.6740000000000066</v>
       </c>
+      <c r="M43" s="11">
+        <v>346.346</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>86.802999999999997</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>42.804000000000002</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>1.095</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>130.702</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>74.915000000000006</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>47.984999999999999</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>122.9</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>8.7669999999999995</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>11.887999999999991</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="9">
         <v>7.8019999999999925</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="9">
         <v>16.568999999999988</v>
       </c>
+      <c r="M44" s="11">
+        <v>355.49099999999999</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>106.54600000000001</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>33.665999999999997</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>0.83899999999999997</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>141.05099999999999</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>86.823999999999998</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>78.703999999999994</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>165.52799999999999</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>6.3330000000000002</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>19.722000000000008</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="9">
         <v>-24.477000000000004</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="9">
         <v>-18.144000000000005</v>
       </c>
+      <c r="M45" s="11">
+        <v>447.54899999999992</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>81.504000000000005</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>5.8280000000000003</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>87.451000000000008</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>72.206000000000003</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>37.21</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>109.416</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <v>8.1869999999999994</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>9.2980000000000018</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="9">
         <v>-21.964999999999989</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="9">
         <v>-13.777999999999992</v>
       </c>
+      <c r="M46" s="11">
+        <v>407.90299999999996</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>82.831999999999994</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>6.7149999999999999</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>3.706</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>93.253</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>74.881</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>41.987000000000002</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>116.86799999999999</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <v>10.944000000000001</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>7.9509999999999934</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="9">
         <v>-23.614999999999995</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
         <v>-12.670999999999992</v>
       </c>
+      <c r="M47" s="11">
+        <v>378.24099999999999</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>78.912000000000006</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>2.956</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>12.345000000000001</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>94.213000000000008</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>74.453999999999994</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>75.451999999999998</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>149.90600000000001</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <v>10.938000000000001</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="9">
         <v>4.4580000000000126</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="9">
         <v>-55.692999999999998</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="9">
         <v>-44.75500000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="M48" s="11">
+        <v>430.44700000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>95.540999999999997</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>56.14</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>7.67</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>159.35099999999997</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>74.221000000000004</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>76.775000000000006</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>150.99600000000001</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <v>9.9</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="9">
         <v>21.319999999999993</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="9">
         <v>8.3549999999999613</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="9">
         <v>18.254999999999967</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="M49" s="11">
+        <v>457.96600000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <v>92.421000000000006</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="9">
         <v>6.806</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="9">
         <v>3.5339999999999998</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>102.76100000000001</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="9">
         <v>85.823999999999998</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="9">
         <v>55.082000000000001</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="9">
         <v>140.90600000000001</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="9">
         <v>16.831</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="9">
         <v>6.5970000000000084</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="9">
         <v>-38.144999999999996</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="9">
         <v>-21.313999999999993</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="M50" s="11">
+        <v>471.678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>87.825999999999993</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="9">
         <v>5.7290000000000001</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="9">
         <v>0.38600000000000001</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>93.940999999999988</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="9">
         <v>80.031999999999996</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="9">
         <v>80.588999999999999</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="9">
         <v>160.62099999999998</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="9">
         <v>9.718</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="9">
         <v>7.7939999999999969</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <v>-66.679999999999993</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="9">
         <v>-56.962000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="M51" s="11">
+        <v>420.19299999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="9">
         <v>96.265000000000001</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="9">
         <v>5.1559999999999997</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="9">
         <v>1.171</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>102.59200000000001</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="9">
         <v>93.587999999999994</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="9">
         <v>43.055</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="9">
         <v>136.643</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="9">
         <v>17.422000000000001</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="9">
         <v>2.6770000000000067</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="9">
         <v>-34.050999999999988</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="9">
         <v>-16.628999999999991</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="M52" s="11">
+        <v>397.64300000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="9">
         <v>125.861</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="9">
         <v>3.4089999999999998</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="9">
         <v>13.119</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>142.38900000000001</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="9">
         <v>78.632000000000005</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="9">
         <v>89.301000000000002</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="9">
         <v>167.93299999999999</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="9">
         <v>9.6590000000000007</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="9">
         <v>47.228999999999999</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="9">
         <v>-25.543999999999983</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="9">
         <v>-15.884999999999991</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="M53" s="11">
+        <v>489.29700000000008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="9">
         <v>99.787999999999997</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="9">
         <v>10.612</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="9">
         <v>0.501</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="9">
         <v>110.901</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="9">
         <v>81.028999999999996</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="9">
         <v>39.564999999999998</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="9">
         <v>120.59399999999999</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="12">
+      <c r="I54" s="11"/>
+      <c r="J54" s="9">
         <v>18.759</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="9">
         <v>-9.6929999999999978</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="9">
         <v>5.2960000000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="M54" s="11">
+        <v>483.42399999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="9">
         <v>98.475999999999999</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="9">
         <v>3.7519999999999998</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="9">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="9">
         <v>102.47</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="9">
         <v>82.414000000000001</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="9">
         <v>68.349000000000004</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="9">
         <v>150.76300000000001</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="12">
+      <c r="I55" s="11"/>
+      <c r="J55" s="9">
         <v>16.061999999999998</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="9">
         <v>-48.293000000000006</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L55" s="9">
         <v>-36.713000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="M55" s="11">
+        <v>416.21999999999991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <v>101.63200000000001</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>3.7480000000000002</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>17.786999999999999</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="9">
         <v>123.167</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>91.367999999999995</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <v>63.094000000000001</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>154.46199999999999</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="12">
+      <c r="I56" s="11"/>
+      <c r="J56" s="9">
         <v>10.26400000000001</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56" s="9">
         <v>-31.294999999999987</v>
       </c>
-      <c r="L56" s="10">
+      <c r="L56" s="9">
         <v>-15.765000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="M56" s="11">
+        <v>448.142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>111.77</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>3.3180000000000001</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="9">
         <v>115.53999999999999</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>97.421000000000006</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="9">
         <v>65.519000000000005</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>162.94</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="12">
+      <c r="I57" s="11"/>
+      <c r="J57" s="9">
         <v>14.34899999999999</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="9">
         <v>-47.400000000000006</v>
       </c>
-      <c r="L57" s="10">
+      <c r="L57" s="9">
         <v>-25.582999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="M57" s="11">
+        <v>526.17100000000016</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <v>100.994</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>3.6739999999999999</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>2.8860000000000001</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="9">
         <v>107.554</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>95.399000000000001</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="9">
         <v>66.106999999999999</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <v>161.506</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="12">
+      <c r="I58" s="11"/>
+      <c r="J58" s="9">
         <v>5.5949999999999989</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58" s="9">
         <v>-53.951999999999998</v>
       </c>
-      <c r="L58" s="10">
+      <c r="L58" s="9">
         <v>-36.579000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="M58" s="11">
+        <v>516.77200000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>104.187</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>4.875</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>1.4630000000000001</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="9">
         <v>110.52499999999999</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>97.81</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <v>53.26</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <v>151.07</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="12">
+      <c r="I59" s="11"/>
+      <c r="J59" s="9">
         <v>6.3769999999999953</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="9">
         <v>-40.545000000000002</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="9">
         <v>-20.978000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="M59" s="11">
+        <v>481.73500000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>104.871</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>12.961</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>1.585</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="9">
         <v>119.41699999999999</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>102.416</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="9">
         <v>49.537999999999997</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>151.95400000000001</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="12">
+      <c r="I60" s="11"/>
+      <c r="J60" s="9">
         <v>2.4549999999999983</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="9">
         <v>-32.53700000000002</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L60" s="9">
         <v>-13.888999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="M60" s="11">
+        <v>483.75900000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>123.319</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>16.117999999999999</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>17.777999999999999</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="9">
         <v>157.215</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>112.544</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="9">
         <v>71.968999999999994</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>184.51299999999998</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="12">
+      <c r="I61" s="11"/>
+      <c r="J61" s="9">
         <v>10.775000000000006</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K61" s="9">
         <v>-27.297999999999973</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L61" s="9">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="M61" s="11">
+        <v>556.82399999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <v>110.58499999999999</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>1.0840000000000001</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>2.79</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="9">
         <v>114.459</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>116.084</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <v>37.121000000000002</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>153.20500000000001</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="12">
+      <c r="I62" s="11"/>
+      <c r="J62" s="9">
         <v>-5.4990000000000094</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="9">
         <v>-38.746000000000009</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="9">
         <v>-8.32</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="M62" s="11">
+        <v>546.25099999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>118.925</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>7.726</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="9">
         <v>126.72099999999999</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>113.26600000000001</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="9">
         <v>30.763000000000002</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>144.029</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="12">
+      <c r="I63" s="11"/>
+      <c r="J63" s="9">
         <v>5.6589999999999918</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="9">
         <v>-17.308000000000007</v>
       </c>
-      <c r="L63" s="10">
+      <c r="L63" s="9">
         <v>11.419</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="M63" s="11">
+        <v>485.05799999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>109.164</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>1.5509999999999999</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>10.06</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="9">
         <v>120.77500000000001</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <v>125.79</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="9">
         <v>39.776000000000003</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>165.566</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="12">
+      <c r="I64" s="11"/>
+      <c r="J64" s="9">
         <v>-16.626000000000005</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="9">
         <v>-44.790999999999997</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L64" s="9">
         <v>-12.278</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="M64" s="11">
+        <v>513.67100000000016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>117.554</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>1.044</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>1.75</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="9">
         <v>120.348</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <v>147.61000000000001</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="9">
         <v>52.250999999999998</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>199.86100000000002</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="12">
+      <c r="I65" s="11"/>
+      <c r="J65" s="9">
         <v>-30.056000000000012</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="9">
         <v>-79.513000000000019</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="9">
         <v>-47.564999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="M65" s="11">
+        <v>580.45700000000011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <v>130.97300000000001</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>2.7069999999999999</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>1.008</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="9">
         <v>134.68800000000002</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="9">
         <v>143.42400000000001</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="9">
         <v>24.907</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>168.33100000000002</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="12">
+      <c r="I66" s="11"/>
+      <c r="J66" s="9">
         <v>-12.450999999999993</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66" s="9">
         <v>-33.643000000000001</v>
       </c>
-      <c r="L66" s="10">
+      <c r="L66" s="9">
         <v>7.1210000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="M66" s="11">
+        <v>561.77100000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>128.565</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>1.52</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>0.33800000000000002</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="9">
         <v>130.423</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="9">
         <v>132.68799999999999</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="9">
         <v>24.905000000000001</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>157.59299999999999</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="12">
+      <c r="I67" s="11"/>
+      <c r="J67" s="9">
         <v>-4.1229999999999905</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K67" s="9">
         <v>-27.169999999999987</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L67" s="9">
         <v>10.728999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="M67" s="11">
+        <v>478.76499999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <v>134.37799999999999</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>10.983000000000001</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="9">
         <v>146.48099999999999</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="9">
         <v>137.429</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="9">
         <v>21.024999999999999</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>158.45400000000001</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="12">
+      <c r="I68" s="11"/>
+      <c r="J68" s="9">
         <v>-3.0510000000000161</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="9">
         <v>-11.973000000000013</v>
       </c>
-      <c r="L68" s="10">
+      <c r="L68" s="9">
         <v>26.93</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="M68" s="11">
+        <v>527.04700000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <v>135.904</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="9">
         <v>1.804</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>10.587999999999999</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="9">
         <v>148.29599999999999</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="9">
         <v>134.88999999999999</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="9">
         <v>20.78</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>155.66999999999999</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="12">
+      <c r="I69" s="11"/>
+      <c r="J69" s="9">
         <v>1.01400000000001</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K69" s="9">
         <v>-7.3739999999999952</v>
       </c>
-      <c r="L69" s="10">
+      <c r="L69" s="9">
         <v>28.507999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="M69" s="11">
+        <v>579.60199999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>138.42400000000001</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="9">
         <v>3.3069999999999999</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>0.70499999999999996</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="9">
         <v>142.43600000000001</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="9">
         <v>140.88300000000001</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="9">
         <v>21.998000000000001</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>162.881</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="12">
+      <c r="I70" s="11"/>
+      <c r="J70" s="9">
         <v>-2.4590000000000032</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="9">
         <v>-20.444999999999993</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="9">
         <v>19.623999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="M70" s="11">
+        <v>567.16200000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>140.78800000000001</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="9">
         <v>2.5089999999999999</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>2.6640000000000001</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="9">
         <v>145.96099999999998</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <v>143.06800000000001</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="9">
         <v>27.577000000000002</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>170.64500000000001</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="12">
+      <c r="I71" s="11"/>
+      <c r="J71" s="9">
         <v>-2.2800000000000011</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71" s="9">
         <v>-24.684000000000026</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="9">
         <v>14.036</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="M71" s="11">
+        <v>541.34900000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>150.833</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>2.3679999999999999</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>11.323</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="9">
         <v>164.524</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="9">
         <v>131.99199999999999</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="9">
         <v>27.39</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>159.38200000000001</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="12">
+      <c r="I72" s="11"/>
+      <c r="J72" s="9">
         <v>18.841000000000008</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72" s="9">
         <v>5.1419999999999959</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L72" s="9">
         <v>32.44</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="M72" s="11">
+        <v>557.88999999999987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <v>156.41999999999999</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="9">
         <v>3.1429999999999998</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="9">
         <v>22.123999999999999</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="9">
         <v>181.68699999999998</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <v>204.80199999999999</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="9">
         <v>37.552999999999997</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <v>242.35499999999999</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="12">
+      <c r="I73" s="11"/>
+      <c r="J73" s="9">
         <v>-48.382000000000005</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K73" s="9">
         <v>-60.668000000000006</v>
       </c>
-      <c r="L73" s="10">
+      <c r="L73" s="9">
         <v>3.4590000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="M73" s="11">
+        <v>607.29600000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <v>180.518</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="9">
         <v>2.758</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="9">
         <v>1.4750000000000001</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="9">
         <v>184.751</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="9">
         <v>129.82499999999999</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="9">
         <v>24.28</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>154.10499999999999</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="12">
+      <c r="I74" s="11"/>
+      <c r="J74" s="9">
         <v>50.693000000000012</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K74" s="9">
         <v>30.646000000000015</v>
       </c>
-      <c r="L74" s="10">
+      <c r="L74" s="9">
         <v>45.652999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="M74" s="11">
+        <v>591.29199999999992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>157.43100000000001</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <v>2.7770000000000001</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>13.428000000000001</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="9">
         <v>173.636</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>157.178</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <v>34.033999999999999</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>191.21199999999999</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="12">
+      <c r="I75" s="11"/>
+      <c r="J75" s="9">
         <v>0.25300000000001432</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K75" s="9">
         <v>-17.575999999999993</v>
       </c>
-      <c r="L75" s="10">
+      <c r="L75" s="9">
         <v>23.202000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="M75" s="11">
+        <v>525.03700000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <v>157.096</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <v>19.686</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>48.81</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="9">
         <v>225.59200000000001</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="9">
         <v>144.31399999999999</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="9">
         <v>64.519000000000005</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>208.833</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="12">
+      <c r="I76" s="11"/>
+      <c r="J76" s="9">
         <v>12.782000000000011</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K76" s="9">
         <v>16.759000000000015</v>
       </c>
-      <c r="L76" s="10">
+      <c r="L76" s="9">
         <v>31.731999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="M76" s="11">
+        <v>548.58000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>177.25399999999999</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <v>4.9020000000000001</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>1.548</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="9">
         <v>183.70399999999998</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="9">
         <v>165.96199999999999</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="9">
         <v>51.581000000000003</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="9">
         <v>217.54300000000001</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="12">
+      <c r="I77" s="11"/>
+      <c r="J77" s="9">
         <v>11.292000000000002</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K77" s="9">
         <v>-33.839000000000027</v>
       </c>
-      <c r="L77" s="10">
+      <c r="L77" s="9">
         <v>6.5910000000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="M77" s="11">
+        <v>603.41099999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="9">
         <v>194.25899999999999</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <v>1.5089999999999999</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>1.1060000000000001</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="9">
         <v>196.87399999999997</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="9">
         <v>136.72</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="9">
         <v>22.074000000000002</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>158.79400000000001</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="12">
+      <c r="I78" s="11"/>
+      <c r="J78" s="9">
         <v>57.538999999999987</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K78" s="9">
         <v>38.079999999999956</v>
       </c>
-      <c r="L78" s="10">
+      <c r="L78" s="9">
         <v>51.518999999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="M78" s="11">
+        <v>619.74399999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <v>202.17599999999999</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <v>0.66900000000000004</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>52.387999999999998</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="9">
         <v>255.233</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="9">
         <v>167.11099999999999</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="9">
         <v>22.015000000000001</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="9">
         <v>189.12599999999998</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="12">
+      <c r="I79" s="11"/>
+      <c r="J79" s="9">
         <v>35.064999999999998</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K79" s="9">
         <v>66.107000000000028</v>
       </c>
-      <c r="L79" s="10">
+      <c r="L79" s="9">
         <v>104.857</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="M79" s="11">
+        <v>557.73599999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <v>158.655</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="9">
         <v>1.548</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>7.6280000000000001</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="9">
         <v>167.83100000000002</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="9">
         <v>148.066</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="9">
         <v>45.933</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <v>193.999</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="12">
+      <c r="I80" s="11"/>
+      <c r="J80" s="9">
         <v>10.588999999999999</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K80" s="9">
         <v>-26.167999999999978</v>
       </c>
-      <c r="L80" s="10">
+      <c r="L80" s="9">
         <v>-13.54</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="M80" s="11">
+        <v>553.95000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <v>157.51169927999999</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="9">
         <v>0.65496650999999995</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>5.9223121600000006</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="9">
         <v>164.08897794999999</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="9">
         <v>182.01987484999998</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="9">
         <v>43.614941000000002</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <v>225.63481585</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="12">
+      <c r="I81" s="11"/>
+      <c r="J81" s="9">
         <v>-24.508175569999992</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K81" s="9">
         <v>-61.545837900000009</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L81" s="9">
         <v>-23.940373570000027</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="M81" s="11">
+        <v>591.255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <v>169.68681118000001</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="9">
         <v>2.0271453400000001</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>20.182104930000001</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="9">
         <v>191.89606145000002</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="9">
         <v>143.89108536999998</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="9">
         <v>17.27361548</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="9">
         <v>161.16470084999997</v>
       </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="12">
+      <c r="I82" s="11"/>
+      <c r="J82" s="9">
         <v>25.795725810000022</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K82" s="9">
         <v>30.731360600000045</v>
       </c>
-      <c r="L82" s="10">
+      <c r="L82" s="9">
         <v>41.002257179999987</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="M82" s="11">
+        <v>619.08900000000017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <v>168.90864814</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>1.0092131899999999</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>0.45754778000000002</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="9">
         <v>170.37540910999999</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <v>180.31404415999998</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <v>21.527284869999995</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="9">
         <v>201.84132902999997</v>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="12">
+      <c r="I83" s="11"/>
+      <c r="J83" s="9">
         <v>-11.405396019999984</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K83" s="9">
         <v>-31.465919919999976</v>
       </c>
-      <c r="L83" s="10">
+      <c r="L83" s="9">
         <v>5.351954529999988</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="M83" s="11">
+        <v>560.45400000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <v>164.16701337999999</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="9">
         <v>0.77695331000000012</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>7.7165069500000003</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="9">
         <v>172.66047363999999</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="9">
         <v>155.84071338999999</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="9">
         <v>30.914726049999999</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="9">
         <v>186.75543943999998</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="12">
+      <c r="I84" s="11"/>
+      <c r="J84" s="9">
         <v>8.3262999899999954</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K84" s="9">
         <v>-14.094965799999983</v>
       </c>
-      <c r="L84" s="10">
+      <c r="L84" s="9">
         <v>-1.4520028899999742</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="M84" s="11">
+        <v>570.93000000000018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <v>193.96968968000002</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="9">
         <v>0.95864629999999984</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>5.3068182899999998</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="9">
         <v>200.23515427000001</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="9">
         <v>189.34798897999997</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="9">
         <v>28.912501429999999</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="9">
         <v>218.26049040999996</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="12">
+      <c r="I85" s="11"/>
+      <c r="J85" s="9">
         <v>4.6217007000000478</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K85" s="9">
         <v>-18.025336139999951</v>
       </c>
-      <c r="L85" s="10">
+      <c r="L85" s="9">
         <v>18.40766386</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="M85" s="11">
+        <v>606.95899999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>195.46830255</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="9">
         <v>1.1034045700000001</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>1.0897346499999998</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="9">
         <v>197.66144177000001</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="9">
         <v>147.44692453000002</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="9">
         <v>34.253496030000001</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="9">
         <v>181.70042056000003</v>
       </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="12">
+      <c r="I86" s="11"/>
+      <c r="J86" s="9">
         <v>48.021378019999986</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K86" s="9">
         <v>15.961021209999984</v>
       </c>
-      <c r="L86" s="10">
+      <c r="L86" s="9">
         <v>23.992321209999993</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="M86" s="11">
+        <v>626.81899999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>176.13721442488068</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="9">
         <v>0.93119989999999997</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>1.1270384999999998</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="9">
         <v>178.19545282488068</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="9">
         <v>188.50395212999999</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="9">
         <v>31.266597020000003</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="9">
         <v>219.77054914999999</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="12">
+      <c r="I87" s="11"/>
+      <c r="J87" s="9">
         <v>-12.366737705119306</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K87" s="9">
         <v>-41.575096325119318</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L87" s="9">
         <v>1.8118036748807063</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="M87" s="11">
+        <v>567.43900000000008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>188.19294316000003</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="9">
         <v>0.98607195000000003</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>4.2505901599999998</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="9">
         <v>193.42960527000002</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="9">
         <v>157.43535706</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="9">
         <v>38.697500929999997</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="9">
         <v>196.13285798999999</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="12">
+      <c r="I88" s="11"/>
+      <c r="J88" s="9">
         <v>30.757586100000026</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K88" s="9">
         <v>-2.7032527199999663</v>
       </c>
-      <c r="L88" s="10">
+      <c r="L88" s="9">
         <v>5.2469472800000512</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="M88" s="11">
+        <v>618.45699999999988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>206.35791264</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="9">
         <v>1.66824879</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>5.66309182</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="9">
         <v>213.68925325000001</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="9">
         <v>196.43738231500001</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="9">
         <v>23.05476831</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="9">
         <v>219.49215062500002</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="12">
+      <c r="I89" s="11"/>
+      <c r="J89" s="9">
         <v>9.9205303249999872</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K89" s="9">
         <v>-5.8028973750000148</v>
       </c>
-      <c r="L89" s="10">
+      <c r="L89" s="9">
         <v>38.203047720000029</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="M89" s="11">
+        <v>651.28200000000015</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <v>188.59719268999999</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="9">
         <v>1.5848823200000002</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>1.0611329599999999</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="9">
         <v>191.24320796999999</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="9">
         <v>164.93480777000002</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="9">
         <v>30.015373429999997</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="9">
         <v>194.95018120000003</v>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="12">
+      <c r="I90" s="11"/>
+      <c r="J90" s="9">
         <v>23.662384919999965</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K90" s="9">
         <v>-3.7069732300000453</v>
       </c>
-      <c r="L90" s="10">
+      <c r="L90" s="9">
         <v>4.6394720999999555</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="M90" s="11">
+        <v>625.62699999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <v>200.44267808000004</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="9">
         <v>1.14428295</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>8.0205523499999991</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="9">
         <v>209.60751338000003</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="9">
         <v>195.63475356999999</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="9">
         <v>31.504185360000001</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="9">
         <v>227.13893892999999</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="12">
+      <c r="I91" s="11"/>
+      <c r="J91" s="9">
         <v>4.8079245100000492</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K91" s="9">
         <v>-17.531425549999966</v>
       </c>
-      <c r="L91" s="10">
+      <c r="L91" s="9">
         <v>26.30200046000007</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="M91" s="11">
+        <v>577.6640000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>191.58829288000001</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="9">
         <v>1.7667916299999997</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>8.289400689999999</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="9">
         <v>201.64448520000002</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="9">
         <v>160.37268358832449</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="9">
         <v>37.140019099999996</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="9">
         <v>197.51270268832448</v>
       </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="12">
+      <c r="I92" s="11"/>
+      <c r="J92" s="9">
         <v>31.21560929167552</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K92" s="9">
         <v>4.1317825116755387</v>
       </c>
-      <c r="L92" s="10">
+      <c r="L92" s="9">
         <v>11.507212840000022</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="M92" s="11">
+        <v>603.875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <v>215.24040411000001</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="9">
         <v>3.3434874199999998</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>25.164681039999998</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="9">
         <v>243.74857257000002</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="9">
         <v>208.16202880999998</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="9">
         <v>61.531746429999998</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="9">
         <v>269.69377523999998</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="12">
+      <c r="I93" s="11"/>
+      <c r="J93" s="9">
         <v>7.0783753000000331</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K93" s="9">
         <v>-25.945202669999958</v>
       </c>
-      <c r="L93" s="10">
+      <c r="L93" s="9">
         <v>16.84259732999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="M93" s="11">
+        <v>675.60599999999988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>202.88877568999999</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="9">
         <v>1.2713233700000002</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>1.27482688</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="9">
         <v>205.43492594</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="9">
         <v>166.01612457999997</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="9">
         <v>26.222035639999998</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="9">
         <v>192.23816021999997</v>
       </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="12">
+      <c r="I94" s="11"/>
+      <c r="J94" s="9">
         <v>36.872651110000021</v>
       </c>
-      <c r="K94" s="10">
+      <c r="K94" s="9">
         <v>13.19676572000003</v>
       </c>
-      <c r="L94" s="10">
+      <c r="L94" s="9">
         <v>21.628065719999984</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="M94" s="11">
+        <v>643.56700000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <v>196.93615496000001</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="9">
         <v>1.2747211499999997</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>17.563743510000002</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="9">
         <v>215.77461962000001</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="9">
         <v>187.25532106</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="9">
         <v>38.776813810000007</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="9">
         <v>226.03213486999999</v>
       </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="12">
+      <c r="I95" s="11"/>
+      <c r="J95" s="9">
         <v>9.6808339000000103</v>
       </c>
-      <c r="K95" s="10">
+      <c r="K95" s="9">
         <v>-10.257515249999983</v>
       </c>
-      <c r="L95" s="10">
+      <c r="L95" s="9">
         <v>23.449984750000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="M95" s="11">
+        <v>585.61299999999994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <v>210.53618883999999</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="9">
         <v>0.56520864999999998</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>1.54860657</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="9">
         <v>212.65000405999999</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="9">
         <v>179.40671255999999</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="9">
         <v>35.369086660000001</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="9">
         <v>214.77579921999998</v>
       </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="12">
+      <c r="I96" s="11"/>
+      <c r="J96" s="9">
         <v>31.129476280000006</v>
       </c>
-      <c r="K96" s="10">
+      <c r="K96" s="9">
         <v>-2.1257951599999956</v>
       </c>
-      <c r="L96" s="10">
+      <c r="L96" s="9">
         <v>6.169204839999991</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="M96" s="11">
+        <v>613.38199999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <v>204.00060924000002</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="9">
         <v>1.5075374100000001</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>0.95477690000000004</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="9">
         <v>206.46292355000003</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="9">
         <v>174.95533713999998</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="9">
         <v>44.130704150000007</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="9">
         <v>219.08604129</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="12">
+      <c r="I97" s="11"/>
+      <c r="J97" s="9">
         <v>29.045272100000034</v>
       </c>
-      <c r="K97" s="10">
+      <c r="K97" s="9">
         <v>-12.623117739999969</v>
       </c>
-      <c r="L97" s="10">
+      <c r="L97" s="9">
         <v>-4.1150177399999812</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="M97" s="11">
+        <v>671.67099999999982</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <v>226.29757846999999</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="9">
         <v>1.2810838099999999</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>11.311559149999999</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="9">
         <v>238.89022143</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="9">
         <v>186.04668026000002</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="9">
         <v>28.941859230000002</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="9">
         <v>214.98853949000002</v>
       </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="12">
+      <c r="I98" s="11"/>
+      <c r="J98" s="9">
         <v>40.250898209999974</v>
       </c>
-      <c r="K98" s="10">
+      <c r="K98" s="9">
         <v>23.901681939999975</v>
       </c>
-      <c r="L98" s="10">
+      <c r="L98" s="9">
         <v>31.363281939999986</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="M98" s="11">
+        <v>653.71699999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <v>204.88880079999998</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="9">
         <v>1.3063939199999999</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>11.659973829999998</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="9">
         <v>217.85516854999997</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="9">
         <v>199.25580688000002</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="9">
         <v>41.650955979999999</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="9">
         <v>240.90676286000001</v>
       </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="12">
+      <c r="I99" s="11"/>
+      <c r="J99" s="9">
         <v>5.6329939199999615</v>
       </c>
-      <c r="K99" s="10">
+      <c r="K99" s="9">
         <v>-23.051594310000041</v>
       </c>
-      <c r="L99" s="10">
+      <c r="L99" s="9">
         <v>8.7055056899999901</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="M99" s="11">
+        <v>591.38099999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="9">
         <v>216.39340139000004</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="9">
         <v>1.58455222</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>3.7548930600000001</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="9">
         <v>221.73284667000004</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="9">
         <v>183.36469234</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="9">
         <v>63.766642210000008</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="9">
         <v>247.13133455000002</v>
       </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="12">
+      <c r="I100" s="11"/>
+      <c r="J100" s="9">
         <v>33.028709050000032</v>
       </c>
-      <c r="K100" s="10">
+      <c r="K100" s="9">
         <v>-25.398487879999976</v>
       </c>
-      <c r="L100" s="10">
+      <c r="L100" s="9">
         <v>-14.714887879999937</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="M100" s="11">
+        <v>622.73299999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <v>218.32453956999998</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="9">
         <v>1.2206096099999999</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>45.231046040000003</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="9">
         <v>264.77619521999998</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="9">
         <v>208.72043631</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="9">
         <v>87.925230869999993</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="9">
         <v>296.64566717999998</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="12">
+      <c r="I101" s="11"/>
+      <c r="J101" s="9">
         <v>9.604103259999988</v>
       </c>
-      <c r="K101" s="10">
+      <c r="K101" s="9">
         <v>-31.869471959999998</v>
       </c>
-      <c r="L101" s="10">
+      <c r="L101" s="9">
         <v>2.2879280400000281</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="M101" s="11">
+        <v>661.92200000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <v>241.09448964000001</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="9">
         <v>1.50851797</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="9">
         <v>18.080424960000002</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="9">
         <v>260.68343257000004</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="9">
         <v>180.99194742999998</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="9">
         <v>52.299819740000004</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="9">
         <v>233.29176716999999</v>
       </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="12">
+      <c r="I102" s="11"/>
+      <c r="J102" s="9">
         <v>60.102542210000024</v>
       </c>
-      <c r="K102" s="10">
+      <c r="K102" s="9">
         <v>27.391665400000051</v>
       </c>
-      <c r="L102" s="10">
+      <c r="L102" s="9">
         <v>35.582175240000012</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="M102" s="11">
+        <v>717.21199999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <v>242.26563939100001</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="9">
         <v>1.4565004199999998</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="9">
         <v>0.82964152999999985</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="9">
         <v>244.55178134100001</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="9">
         <v>220.07215880000001</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="9">
         <v>54.927562859999995</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="9">
         <v>274.99972165999998</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="12">
+      <c r="I103" s="11"/>
+      <c r="J103" s="9">
         <v>22.193480590999997</v>
       </c>
-      <c r="K103" s="10">
+      <c r="K103" s="9">
         <v>-30.447940318999969</v>
       </c>
-      <c r="L103" s="10">
+      <c r="L103" s="9">
         <v>4.411968940999941</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="M103" s="11">
+        <v>633.47900000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="9">
         <v>209.98378445999998</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="9">
         <v>1.3715955100000001</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="9">
         <v>18.997410550000001</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="9">
         <v>230.35279051999999</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="9">
         <v>207.78575446000002</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="9">
         <v>86.395138239999994</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="9">
         <v>294.18089270000002</v>
       </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="12">
+      <c r="I104" s="11"/>
+      <c r="J104" s="9">
         <v>2.1980299999999602</v>
       </c>
-      <c r="K104" s="10">
+      <c r="K104" s="9">
         <v>-63.82810218000003</v>
       </c>
-      <c r="L104" s="10">
+      <c r="L104" s="9">
         <v>-53.680902179999947</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="M104" s="11">
+        <v>640.30399999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="9">
         <v>267.45616667000002</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="9">
         <v>1.2907721599999999</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="9">
         <v>1.2592379999999999</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="9">
         <v>270.00617683000002</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="9">
         <v>231.14226580999994</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="9">
         <v>102.75742601999998</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="9">
         <v>333.89969182999994</v>
       </c>
-      <c r="I105" s="3"/>
-      <c r="J105" s="12">
+      <c r="I105" s="11"/>
+      <c r="J105" s="9">
         <v>36.313900860000075</v>
       </c>
-      <c r="K105" s="10">
+      <c r="K105" s="9">
         <v>-63.893514999999923</v>
       </c>
-      <c r="L105" s="10">
+      <c r="L105" s="9">
         <v>-28.938214999999968</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="M105" s="11">
+        <v>715.35799999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="9">
         <v>250.22814484000003</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="9">
         <v>1.67163225</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="9">
         <v>12.789415849999999</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="9">
         <v>264.68919294</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F106" s="9">
         <v>195.15458380000001</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="9">
         <v>56.811551319999992</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="9">
         <v>251.96613511999999</v>
       </c>
-      <c r="I106" s="3"/>
-      <c r="J106" s="12">
+      <c r="I106" s="11"/>
+      <c r="J106" s="9">
         <v>55.073561040000016</v>
       </c>
-      <c r="K106" s="10">
+      <c r="K106" s="9">
         <v>12.723057820000008</v>
       </c>
-      <c r="L106" s="10">
+      <c r="L106" s="9">
         <v>21.170857820000062</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="M106" s="11">
+        <v>710.24699999999984</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="9">
         <v>253.94805741000002</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="9">
         <v>1.3899518399999999</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="9">
         <v>2.5682724599999998</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="9">
         <v>257.90628171000003</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F107" s="9">
         <v>249.04613779000002</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="9">
         <v>166.35077719</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="9">
         <v>415.39691498000002</v>
       </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="12">
+      <c r="I107" s="11"/>
+      <c r="J107" s="9">
         <v>4.901919620000001</v>
       </c>
-      <c r="K107" s="10">
+      <c r="K107" s="9">
         <v>-157.49063326999999</v>
       </c>
-      <c r="L107" s="10">
+      <c r="L107" s="9">
         <v>-120.14653327000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="M107" s="11">
+        <v>642.93499999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="9">
         <v>222.35312109999998</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="9">
         <v>2.4201541200000003</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="9">
         <v>4.9163938299999996</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="9">
         <v>229.68966904999999</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F108" s="9">
         <v>218.6473493</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="9">
         <v>78.683125659999988</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="9">
         <v>297.33047496</v>
       </c>
-      <c r="I108" s="3"/>
-      <c r="J108" s="12">
+      <c r="I108" s="11"/>
+      <c r="J108" s="9">
         <v>3.7057717999999795</v>
       </c>
-      <c r="K108" s="10">
+      <c r="K108" s="9">
         <v>-67.640805910000012</v>
       </c>
-      <c r="L108" s="10">
+      <c r="L108" s="9">
         <v>-56.637705910000015</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="M108" s="11">
+        <v>661.24199999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="9">
         <v>246.35687976000003</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="9">
         <v>0.77726647999999998</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="9">
         <v>1.3048156899999999</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="9">
         <v>248.43896193000003</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F109" s="9">
         <v>249.59121039000001</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="9">
         <v>48.390879249999998</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="9">
         <v>297.98208964000003</v>
       </c>
-      <c r="I109" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J109" s="12">
+      <c r="I109" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J109" s="9">
         <v>-3.2343306299999881</v>
       </c>
-      <c r="K109" s="10">
+      <c r="K109" s="9">
         <v>-49.543127709999993</v>
       </c>
-      <c r="L109" s="10">
+      <c r="L109" s="9">
         <v>-13.167827710000012</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="M109" s="11">
+        <v>715.17499999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="9">
         <v>258.19464794999999</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="9">
         <v>0.83953839999999991</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="9">
         <v>3.0974264699999998</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="9">
         <v>262.13161281999999</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="9">
         <v>220.25794106000001</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="9">
         <v>54.197407719999994</v>
       </c>
-      <c r="H110" s="10">
+      <c r="H110" s="9">
         <v>274.45534878000001</v>
       </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="12">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9">
         <v>37.936706889999982</v>
       </c>
-      <c r="K110" s="10">
+      <c r="K110" s="9">
         <v>-12.323735960000022</v>
       </c>
-      <c r="L110" s="10">
+      <c r="L110" s="9">
         <v>-1.7564359600000026</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="M110" s="11">
+        <v>709.5809999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="9">
         <v>270.88363899999996</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="9">
         <v>0.5549381000000001</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="9">
         <v>23.469346690000005</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="9">
         <v>294.90792378999998</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F111" s="9">
         <v>253.78803153000001</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="9">
         <v>48.493662909999998</v>
       </c>
-      <c r="H111" s="10">
+      <c r="H111" s="9">
         <v>302.28169444000002</v>
       </c>
-      <c r="I111" s="10"/>
-      <c r="J111" s="12">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9">
         <v>17.095607469999948</v>
       </c>
-      <c r="K111" s="10">
+      <c r="K111" s="9">
         <v>-7.37377065000004</v>
       </c>
-      <c r="L111" s="10">
+      <c r="L111" s="9">
         <v>33.28572935000004</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="M111" s="11">
+        <v>638.35699999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="9">
         <v>227.14145873999996</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="9">
         <v>0.49898292999999994</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="9">
         <v>6.3001125199999999</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="9">
         <v>233.94055418999997</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="9">
         <v>227.30457266000002</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="9">
         <v>56.463124829999998</v>
       </c>
-      <c r="H112" s="10">
+      <c r="H112" s="9">
         <v>283.76769749000005</v>
       </c>
-      <c r="I112" s="10"/>
-      <c r="J112" s="12">
+      <c r="I112" s="9"/>
+      <c r="J112" s="9">
         <v>-0.16311392000005753</v>
       </c>
-      <c r="K112" s="10">
+      <c r="K112" s="9">
         <v>-49.827143300000074</v>
       </c>
-      <c r="L112" s="10">
+      <c r="L112" s="9">
         <v>-39.319043300000047</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="M112" s="11">
+        <v>661.61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="9">
         <v>247.80900788999998</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="9">
         <v>0.6289255800000001</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="9">
         <v>12.714542809999999</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="9">
         <v>261.15247627999997</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F113" s="9">
         <v>269.25238863999999</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="9">
         <v>68.159217399999989</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="9">
         <v>337.41160603999998</v>
       </c>
-      <c r="I113" s="10"/>
-      <c r="J113" s="12">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9">
         <v>-21.443380750000017</v>
       </c>
-      <c r="K113" s="10">
+      <c r="K113" s="9">
         <v>-76.259129760000008</v>
       </c>
-      <c r="L113" s="10">
+      <c r="L113" s="9">
         <v>-33.522929759999968</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="M113" s="11">
+        <v>730.23099999999988</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="9">
         <v>281.27521623999996</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="9">
         <v>0.44179499999999994</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="9">
         <v>0.34719133000000008</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="9">
         <v>282.06420256999996</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F114" s="9">
         <v>226.94636561000007</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="9">
         <v>34.180696140000002</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="9">
         <v>261.12706175000005</v>
       </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="12">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9">
         <v>54.328850629999891</v>
       </c>
-      <c r="K114" s="10">
+      <c r="K114" s="9">
         <v>20.937140819999911</v>
       </c>
-      <c r="L114" s="10">
+      <c r="L114" s="9">
         <v>33.346169589999917</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="M114" s="11">
+        <v>720.97699999999986</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="9">
         <v>260.84192626999999</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C115" s="9">
         <v>0.52210579000000013</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="9">
         <v>10.163110189999999</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="9">
         <v>271.52714225</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F115" s="9">
         <v>264.50065082000003</v>
       </c>
-      <c r="G115" s="10">
+      <c r="G115" s="9">
         <v>29.625220849999998</v>
       </c>
-      <c r="H115" s="10">
+      <c r="H115" s="9">
         <v>294.12587167000004</v>
       </c>
-      <c r="I115" s="10"/>
-      <c r="J115" s="12">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9">
         <v>-3.6587245500000449</v>
       </c>
-      <c r="K115" s="10">
+      <c r="K115" s="9">
         <v>-22.598729420000041</v>
       </c>
-      <c r="L115" s="10">
+      <c r="L115" s="9">
         <v>19.200970579999964</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="M115" s="11">
+        <v>643.06499999999994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="9">
         <v>258.00426209</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="9">
         <v>0.38905703000000008</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="9">
         <v>1.0954286100000001</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="9">
         <v>259.48874773</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="9">
         <v>245.12819198</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="9">
         <v>39.803058120000003</v>
       </c>
-      <c r="H116" s="10">
+      <c r="H116" s="9">
         <v>284.9312501</v>
       </c>
-      <c r="I116" s="10"/>
-      <c r="J116" s="12">
+      <c r="I116" s="9"/>
+      <c r="J116" s="9">
         <v>12.876070110000001</v>
       </c>
-      <c r="K116" s="10">
+      <c r="K116" s="9">
         <v>-25.44250237</v>
       </c>
-      <c r="L116" s="10">
+      <c r="L116" s="9">
         <v>-9.9573023699999901</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="M116" s="11">
+        <v>688.54100000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="9">
         <v>287.86453072000006</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="9">
         <v>0.44602509000000001</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="9">
         <v>18.254243349999996</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="9">
         <v>306.56479916000001</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F117" s="9">
         <v>283.96661193999995</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="9">
         <v>48.268600960000001</v>
       </c>
-      <c r="H117" s="10">
+      <c r="H117" s="9">
         <v>332.23521289999996</v>
       </c>
-      <c r="I117" s="10"/>
-      <c r="J117" s="12">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9">
         <v>3.8979187800000656</v>
       </c>
-      <c r="K117" s="10">
+      <c r="K117" s="9">
         <v>-25.670413739999958</v>
       </c>
-      <c r="L117" s="10">
+      <c r="L117" s="9">
         <v>17.135608180000098</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="M117" s="11">
+        <v>729.74899999999991</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="9">
         <v>307.71921978</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="9">
         <v>0.53527053000000002</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="9">
         <v>0.79233072999999987</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="9">
         <v>309.04682104</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="9">
         <v>235.39545294999999</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="9">
         <v>25.149837510000005</v>
       </c>
-      <c r="H118" s="10">
+      <c r="H118" s="9">
         <v>260.54529045999999</v>
       </c>
-      <c r="I118" s="10"/>
-      <c r="J118" s="12">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9">
         <v>72.323766829999983</v>
       </c>
-      <c r="K118" s="10">
+      <c r="K118" s="9">
         <v>48.501530580000008</v>
       </c>
-      <c r="L118" s="10">
+      <c r="L118" s="9">
         <v>64.038627239999968</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="M118" s="11">
+        <v>753.64400000000012</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="9">
         <v>283.02350774000001</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="9">
         <v>0.71784172999999996</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="9">
         <v>11.85621897</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="9">
         <v>295.59756843999997</v>
       </c>
-      <c r="F119" s="10">
+      <c r="F119" s="9">
         <v>275.08873867896665</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="9">
         <v>44.464132370000009</v>
       </c>
-      <c r="H119" s="10">
+      <c r="H119" s="9">
         <v>319.55287104896667</v>
       </c>
-      <c r="I119" s="10"/>
-      <c r="J119" s="12">
+      <c r="I119" s="9"/>
+      <c r="J119" s="9">
         <v>7.9347690610333812</v>
       </c>
-      <c r="K119" s="10">
+      <c r="K119" s="9">
         <v>-23.95530260896669</v>
       </c>
-      <c r="L119" s="10">
+      <c r="L119" s="9">
         <v>18.441502870000026</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="M119" s="11">
+        <v>656.74400000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="9">
         <v>260.76165752000003</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="9">
         <v>1.1984073399999999</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="9">
         <v>20.533814490000001</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="9">
         <v>282.49387935000004</v>
       </c>
-      <c r="F120" s="10">
+      <c r="F120" s="9">
         <v>258.40009214999998</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="9">
         <v>50.542471819999996</v>
       </c>
-      <c r="H120" s="10">
+      <c r="H120" s="9">
         <v>308.94256396999998</v>
       </c>
-      <c r="I120" s="10"/>
-      <c r="J120" s="12">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9">
         <v>2.3615653700000259</v>
       </c>
-      <c r="K120" s="10">
+      <c r="K120" s="9">
         <v>-26.448684619999938</v>
       </c>
-      <c r="L120" s="10">
+      <c r="L120" s="9">
         <v>-8.7631416200000096</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="M120" s="11">
+        <v>699.73800000000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="9">
         <v>292.61162050000007</v>
       </c>
-      <c r="C121" s="10">
+      <c r="C121" s="9">
         <v>3.2387395899999998</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="9">
         <v>3.8006601500000001</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E121" s="9">
         <v>299.65102024000009</v>
       </c>
-      <c r="F121" s="10">
+      <c r="F121" s="9">
         <v>289.33343446999999</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="9">
         <v>48.260564939999995</v>
       </c>
-      <c r="H121" s="10">
+      <c r="H121" s="9">
         <v>337.59399940999998</v>
       </c>
-      <c r="I121" s="10"/>
-      <c r="J121" s="12">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9">
         <v>3.2781860300000991</v>
       </c>
-      <c r="K121" s="10">
+      <c r="K121" s="9">
         <v>-37.942979169999887</v>
       </c>
-      <c r="L121" s="10">
+      <c r="L121" s="9">
         <v>6.2267734700001309</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="M121" s="11">
+        <v>770.8610000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="9">
         <v>303.14085363999999</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="9">
         <v>1.25090032</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="9">
         <v>2.439657</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="9">
         <v>306.83141096000003</v>
       </c>
-      <c r="F122" s="10">
+      <c r="F122" s="9">
         <v>255.31862998</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G122" s="9">
         <v>50.885992769999994</v>
       </c>
-      <c r="H122" s="10">
+      <c r="H122" s="9">
         <v>306.20462275</v>
       </c>
-      <c r="I122" s="10"/>
-      <c r="J122" s="12">
+      <c r="I122" s="9"/>
+      <c r="J122" s="9">
         <v>47.822223659999992</v>
       </c>
-      <c r="K122" s="10">
+      <c r="K122" s="9">
         <v>0.62678821000002927</v>
       </c>
-      <c r="L122" s="10">
+      <c r="L122" s="9">
         <v>18.405323870000021</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="M122" s="11">
+        <v>766.6579999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="9">
         <v>282.24866256999991</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="9">
         <v>1.12459585</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="9">
         <v>2.85641115</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="9">
         <v>286.22966956999988</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F123" s="9">
         <v>280.09727241999997</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="9">
         <v>60.036039359999997</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="9">
         <v>340.13331177999999</v>
       </c>
-      <c r="I123" s="10"/>
-      <c r="J123" s="12">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9">
         <v>2.1513901499999339</v>
       </c>
-      <c r="K123" s="10">
+      <c r="K123" s="9">
         <v>-53.9036422100001</v>
       </c>
-      <c r="L123" s="10">
+      <c r="L123" s="9">
         <v>-9.1177617600000804</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="M123" s="11">
+        <v>673.49099999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="9">
         <v>269.69875774999997</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="9">
         <v>1.3777175400000001</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="9">
         <v>12.555059849999999</v>
       </c>
-      <c r="E124" s="10">
+      <c r="E124" s="9">
         <v>283.63153513999998</v>
       </c>
-      <c r="F124" s="10">
+      <c r="F124" s="9">
         <v>259.75435100999999</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="9">
         <v>62.983563410000002</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="9">
         <v>322.73791441999998</v>
       </c>
-      <c r="I124" s="10"/>
-      <c r="J124" s="12">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9">
         <v>9.9444067400000051</v>
       </c>
-      <c r="K124" s="10">
+      <c r="K124" s="9">
         <v>-39.106379279999999</v>
       </c>
-      <c r="L124" s="10">
+      <c r="L124" s="9">
         <v>-21.202707539999974</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="M124" s="11">
+        <v>684.39499999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="9">
         <v>286.86086921000003</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="9">
         <v>1.4963046</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="9">
         <v>2.8468913800000002</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="9">
         <v>291.20406518999999</v>
       </c>
-      <c r="F125" s="10">
+      <c r="F125" s="9">
         <v>299.10153714</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="9">
         <v>78.527645340000007</v>
       </c>
-      <c r="H125" s="10">
+      <c r="H125" s="9">
         <v>377.62918248</v>
       </c>
-      <c r="I125" s="10"/>
-      <c r="J125" s="12">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9">
         <v>-12.240667929999995</v>
       </c>
-      <c r="K125" s="10">
+      <c r="K125" s="9">
         <v>-86.42511728999996</v>
       </c>
-      <c r="L125" s="10">
+      <c r="L125" s="9">
         <v>-41.704427739999957</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="M125" s="11">
+        <v>713.423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="9">
         <v>195.66436860999997</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="9">
         <v>6.7099598599999997</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="9">
         <v>6.99997531</v>
       </c>
-      <c r="E126" s="10">
+      <c r="E126" s="9">
         <v>209.37430377999996</v>
       </c>
-      <c r="F126" s="10">
+      <c r="F126" s="9">
         <v>233.75799982000004</v>
       </c>
-      <c r="G126" s="10">
+      <c r="G126" s="9">
         <v>72.492921760000002</v>
       </c>
-      <c r="H126" s="10">
+      <c r="H126" s="9">
         <v>306.25092158000007</v>
       </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9">
         <v>-38.093631210000048</v>
       </c>
-      <c r="K126" s="10">
+      <c r="K126" s="9">
         <v>-96.876617800000034</v>
       </c>
-      <c r="L126" s="10">
+      <c r="L126" s="9">
         <v>-79.375911500000015</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="M126" s="11">
+        <v>559.779</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="9">
         <v>227.44431289999997</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="9">
         <v>3.8560280000000002</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="9">
         <v>10.831584489999999</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="9">
         <v>242.13192538999999</v>
       </c>
-      <c r="F127" s="10">
+      <c r="F127" s="9">
         <v>237.52954782</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="9">
         <v>95.049929990000024</v>
       </c>
-      <c r="H127" s="10">
+      <c r="H127" s="9">
         <v>332.57947781000001</v>
       </c>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9">
         <v>-10.085234920000046</v>
       </c>
-      <c r="K127" s="10">
+      <c r="K127" s="9">
         <v>-90.447552420000051</v>
       </c>
-      <c r="L127" s="10">
+      <c r="L127" s="9">
         <v>-72.24786978000003</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="M127" s="11">
+        <v>563.95600000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="9">
         <v>234.25152677999995</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="9">
         <v>5.0935367399999993</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="9">
         <v>4.5299152300000003</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="9">
         <v>243.87497874999994</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F128" s="9">
         <v>236.98943006000002</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G128" s="9">
         <v>99.063574990000006</v>
       </c>
-      <c r="H128" s="10">
+      <c r="H128" s="9">
         <v>336.05300505000002</v>
       </c>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9">
         <v>-2.7379032800000567</v>
       </c>
-      <c r="K128" s="10">
+      <c r="K128" s="9">
         <v>-92.178026300000056</v>
       </c>
-      <c r="L128" s="10">
+      <c r="L128" s="9">
         <v>-71.943069310000084</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="M128" s="11">
+        <v>573.31299999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="9">
         <v>217.23333556999995</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="9">
         <v>0.59060099999999993</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="9">
         <v>4.0523308699999996</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="9">
         <v>221.87626743999994</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F129" s="9">
         <v>246.36581888999999</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="9">
         <v>58.812768089999999</v>
       </c>
-      <c r="H129" s="10">
+      <c r="H129" s="9">
         <v>305.17858697999998</v>
       </c>
-      <c r="I129" s="10"/>
-      <c r="J129" s="12">
+      <c r="I129" s="9"/>
+      <c r="J129" s="9">
         <v>-29.132483320000059</v>
       </c>
-      <c r="K129" s="10">
+      <c r="K129" s="9">
         <v>-83.302319540000084</v>
       </c>
-      <c r="L129" s="10">
+      <c r="L129" s="9">
         <v>-67.070244330000051</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="M129" s="11">
+        <v>653.86200000000008</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="9">
         <v>275.68580537000003</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="9">
         <v>0.66515004</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="9">
         <v>2.1515136099999999</v>
       </c>
-      <c r="E130" s="10">
+      <c r="E130" s="9">
         <v>278.50246902000004</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130" s="9">
         <v>222.72894282999999</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130" s="9">
         <v>43.161664250000001</v>
       </c>
-      <c r="H130" s="10">
+      <c r="H130" s="9">
         <v>265.89060708</v>
       </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="12">
+      <c r="I130" s="9"/>
+      <c r="J130" s="9">
         <v>52.956862540000031</v>
       </c>
-      <c r="K130" s="10">
+      <c r="K130" s="9">
         <v>12.611861940000031</v>
       </c>
-      <c r="L130" s="10">
+      <c r="L130" s="9">
         <v>32.252168650000037</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="M130" s="11">
+        <v>691.81600000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="9">
         <v>295.49925432000003</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="9">
         <v>1.37722192</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="9">
         <v>5.7050334400000002</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="9">
         <v>302.58150968000007</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F131" s="9">
         <v>226.46864410000003</v>
       </c>
-      <c r="G131" s="10">
+      <c r="G131" s="9">
         <v>51.76771918</v>
       </c>
-      <c r="H131" s="10">
+      <c r="H131" s="9">
         <v>278.23636328000003</v>
       </c>
-      <c r="I131" s="10"/>
-      <c r="J131" s="12">
+      <c r="I131" s="9"/>
+      <c r="J131" s="9">
         <v>69.030610219999971</v>
       </c>
-      <c r="K131" s="10">
+      <c r="K131" s="9">
         <v>24.345146400000026</v>
       </c>
-      <c r="L131" s="10">
+      <c r="L131" s="9">
         <v>39.461304650000066</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="M131" s="11">
+        <v>642.01499999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="9">
         <v>293.50148824999991</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="9">
         <v>1.2746942699999999</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="9">
         <v>2.8189303400000001</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E132" s="9">
         <v>297.59511285999992</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132" s="9">
         <v>238.35081675000001</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132" s="9">
         <v>80.404895210000007</v>
       </c>
-      <c r="H132" s="10">
+      <c r="H132" s="9">
         <v>318.75571195999999</v>
       </c>
-      <c r="I132" s="10"/>
-      <c r="J132" s="12">
+      <c r="I132" s="9"/>
+      <c r="J132" s="9">
         <v>55.150671499999937</v>
       </c>
-      <c r="K132" s="10">
+      <c r="K132" s="9">
         <v>-21.160599100000049</v>
       </c>
-      <c r="L132" s="10">
+      <c r="L132" s="9">
         <v>-2.1498384800000347</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="M132" s="11">
+        <v>657.923</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="9">
         <v>300.28880201999993</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="9">
         <v>0.73929960000000006</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="9">
         <v>0.46234808000000005</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="9">
         <v>301.49044969999994</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F133" s="9">
         <v>259.90119252999995</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="9">
         <v>75.599963490000007</v>
       </c>
-      <c r="H133" s="10">
+      <c r="H133" s="9">
         <v>335.50115601999994</v>
       </c>
-      <c r="I133" s="10"/>
-      <c r="J133" s="12">
+      <c r="I133" s="9"/>
+      <c r="J133" s="9">
         <v>40.387609489999974</v>
       </c>
-      <c r="K133" s="10">
+      <c r="K133" s="9">
         <v>-34.010706319999997</v>
       </c>
-      <c r="L133" s="10">
+      <c r="L133" s="9">
         <v>-18.941959779999976</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="M133" s="12"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="9">
         <v>303.48246922000004</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="9">
         <v>0.66515004</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="9">
         <v>3.0331580100000002</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="9">
         <v>307.18077727000008</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F134" s="9">
         <v>216.10670501000001</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="9">
         <v>53.135841140000004</v>
       </c>
-      <c r="H134" s="10">
+      <c r="H134" s="9">
         <v>269.24254615000001</v>
       </c>
-      <c r="I134" s="10"/>
-      <c r="J134" s="12">
+      <c r="I134" s="9"/>
+      <c r="J134" s="9">
         <v>87.375764210000028</v>
       </c>
-      <c r="K134" s="10">
+      <c r="K134" s="9">
         <v>37.938231120000069</v>
       </c>
-      <c r="L134" s="10">
+      <c r="L134" s="9">
         <v>49.905497390000065</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
+      <c r="M134" s="12"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
